--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cxcl16-Cxcr6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cxcl16-Cxcr6.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.102044999999999</v>
+        <v>4.20545</v>
       </c>
       <c r="H2">
-        <v>12.306135</v>
+        <v>12.61635</v>
       </c>
       <c r="I2">
-        <v>0.04707023134627214</v>
+        <v>0.0197921807762369</v>
       </c>
       <c r="J2">
-        <v>0.04707023134627215</v>
+        <v>0.0197921807762369</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +558,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.3606776666666667</v>
+        <v>0.6068583333333333</v>
       </c>
       <c r="N2">
-        <v>1.082033</v>
+        <v>1.820575</v>
       </c>
       <c r="O2">
-        <v>0.2529709148430482</v>
+        <v>0.2510732750714712</v>
       </c>
       <c r="P2">
-        <v>0.2529709148430482</v>
+        <v>0.2510732750714712</v>
       </c>
       <c r="Q2">
-        <v>1.479516019161667</v>
+        <v>2.552112377916667</v>
       </c>
       <c r="R2">
-        <v>13.315644172455</v>
+        <v>22.96901140125</v>
       </c>
       <c r="S2">
-        <v>0.01190739948554039</v>
+        <v>0.004969287648296411</v>
       </c>
       <c r="T2">
-        <v>0.01190739948554039</v>
+        <v>0.004969287648296411</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.102044999999999</v>
+        <v>4.20545</v>
       </c>
       <c r="H3">
-        <v>12.306135</v>
+        <v>12.61635</v>
       </c>
       <c r="I3">
-        <v>0.04707023134627214</v>
+        <v>0.0197921807762369</v>
       </c>
       <c r="J3">
-        <v>0.04707023134627215</v>
+        <v>0.0197921807762369</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>0.595355</v>
       </c>
       <c r="O3">
-        <v>0.1391893768548491</v>
+        <v>0.08210468103768082</v>
       </c>
       <c r="P3">
-        <v>0.1391893768548491</v>
+        <v>0.08210468103768082</v>
       </c>
       <c r="Q3">
-        <v>0.8140576669916666</v>
+        <v>0.8345785615833333</v>
       </c>
       <c r="R3">
-        <v>7.326519002924999</v>
+        <v>7.51120705425</v>
       </c>
       <c r="S3">
-        <v>0.006551676169501206</v>
+        <v>0.001625030689673048</v>
       </c>
       <c r="T3">
-        <v>0.006551676169501207</v>
+        <v>0.001625030689673048</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.102044999999999</v>
+        <v>4.20545</v>
       </c>
       <c r="H4">
-        <v>12.306135</v>
+        <v>12.61635</v>
       </c>
       <c r="I4">
-        <v>0.04707023134627214</v>
+        <v>0.0197921807762369</v>
       </c>
       <c r="J4">
-        <v>0.04707023134627215</v>
+        <v>0.0197921807762369</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,28 +682,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.232399</v>
+        <v>0.6741056666666667</v>
       </c>
       <c r="N4">
-        <v>0.6971970000000001</v>
+        <v>2.022317</v>
       </c>
       <c r="O4">
-        <v>0.1629992457862456</v>
+        <v>0.278895267936071</v>
       </c>
       <c r="P4">
-        <v>0.1629992457862456</v>
+        <v>0.278895267936071</v>
       </c>
       <c r="Q4">
-        <v>0.9533111559549999</v>
+        <v>2.834917675883334</v>
       </c>
       <c r="R4">
-        <v>8.579800403595</v>
+        <v>25.51425908295</v>
       </c>
       <c r="S4">
-        <v>0.007672412208426457</v>
+        <v>0.005519945560627743</v>
       </c>
       <c r="T4">
-        <v>0.007672412208426457</v>
+        <v>0.005519945560627743</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.102044999999999</v>
+        <v>4.20545</v>
       </c>
       <c r="H5">
-        <v>12.306135</v>
+        <v>12.61635</v>
       </c>
       <c r="I5">
-        <v>0.04707023134627214</v>
+        <v>0.0197921807762369</v>
       </c>
       <c r="J5">
-        <v>0.04707023134627215</v>
+        <v>0.0197921807762369</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.634239</v>
+        <v>0.9376410000000001</v>
       </c>
       <c r="N5">
-        <v>1.902717</v>
+        <v>2.812923</v>
       </c>
       <c r="O5">
-        <v>0.444840462515857</v>
+        <v>0.3879267759547769</v>
       </c>
       <c r="P5">
-        <v>0.4448404625158569</v>
+        <v>0.387926775954777</v>
       </c>
       <c r="Q5">
-        <v>2.601676918755</v>
+        <v>3.94320234345</v>
       </c>
       <c r="R5">
-        <v>23.415092268795</v>
+        <v>35.48882109105</v>
       </c>
       <c r="S5">
-        <v>0.02093874348280409</v>
+        <v>0.007677916877639693</v>
       </c>
       <c r="T5">
-        <v>0.02093874348280409</v>
+        <v>0.007677916877639695</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>18.249775</v>
       </c>
       <c r="I6">
-        <v>0.06980429934072832</v>
+        <v>0.02862974203518836</v>
       </c>
       <c r="J6">
-        <v>0.06980429934072833</v>
+        <v>0.02862974203518836</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,28 +806,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.3606776666666667</v>
+        <v>0.6068583333333333</v>
       </c>
       <c r="N6">
-        <v>1.082033</v>
+        <v>1.820575</v>
       </c>
       <c r="O6">
-        <v>0.2529709148430482</v>
+        <v>0.2510732750714712</v>
       </c>
       <c r="P6">
-        <v>0.2529709148430482</v>
+        <v>0.2510732750714712</v>
       </c>
       <c r="Q6">
-        <v>2.194095421397222</v>
+        <v>3.691676013402777</v>
       </c>
       <c r="R6">
-        <v>19.746858792575</v>
+        <v>33.225084120625</v>
       </c>
       <c r="S6">
-        <v>0.01765845746420203</v>
+        <v>0.007188163097226109</v>
       </c>
       <c r="T6">
-        <v>0.01765845746420204</v>
+        <v>0.007188163097226109</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>18.249775</v>
       </c>
       <c r="I7">
-        <v>0.06980429934072832</v>
+        <v>0.02862974203518836</v>
       </c>
       <c r="J7">
-        <v>0.06980429934072833</v>
+        <v>0.02862974203518836</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -874,10 +874,10 @@
         <v>0.595355</v>
       </c>
       <c r="O7">
-        <v>0.1391893768548491</v>
+        <v>0.08210468103768082</v>
       </c>
       <c r="P7">
-        <v>0.1391893768548491</v>
+        <v>0.08210468103768082</v>
       </c>
       <c r="Q7">
         <v>1.207232755013889</v>
@@ -886,10 +886,10 @@
         <v>10.865094795125</v>
       </c>
       <c r="S7">
-        <v>0.009716016927025332</v>
+        <v>0.002350635837990223</v>
       </c>
       <c r="T7">
-        <v>0.009716016927025334</v>
+        <v>0.002350635837990223</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,10 +918,10 @@
         <v>18.249775</v>
       </c>
       <c r="I8">
-        <v>0.06980429934072832</v>
+        <v>0.02862974203518836</v>
       </c>
       <c r="J8">
-        <v>0.06980429934072833</v>
+        <v>0.02862974203518836</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -930,28 +930,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.232399</v>
+        <v>0.6741056666666667</v>
       </c>
       <c r="N8">
-        <v>0.6971970000000001</v>
+        <v>2.022317</v>
       </c>
       <c r="O8">
-        <v>0.1629992457862456</v>
+        <v>0.278895267936071</v>
       </c>
       <c r="P8">
-        <v>0.1629992457862456</v>
+        <v>0.278895267936071</v>
       </c>
       <c r="Q8">
-        <v>1.413743153408333</v>
+        <v>4.100758914297223</v>
       </c>
       <c r="R8">
-        <v>12.723688380675</v>
+        <v>36.90683022867501</v>
       </c>
       <c r="S8">
-        <v>0.01137804814517604</v>
+        <v>0.007984699575844453</v>
       </c>
       <c r="T8">
-        <v>0.01137804814517604</v>
+        <v>0.007984699575844453</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>18.249775</v>
       </c>
       <c r="I9">
-        <v>0.06980429934072832</v>
+        <v>0.02862974203518836</v>
       </c>
       <c r="J9">
-        <v>0.06980429934072833</v>
+        <v>0.02862974203518836</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.634239</v>
+        <v>0.9376410000000001</v>
       </c>
       <c r="N9">
-        <v>1.902717</v>
+        <v>2.812923</v>
       </c>
       <c r="O9">
-        <v>0.444840462515857</v>
+        <v>0.3879267759547769</v>
       </c>
       <c r="P9">
-        <v>0.4448404625158569</v>
+        <v>0.387926775954777</v>
       </c>
       <c r="Q9">
-        <v>3.858239682075</v>
+        <v>5.703912426925</v>
       </c>
       <c r="R9">
-        <v>34.724157138675</v>
+        <v>51.335211842325</v>
       </c>
       <c r="S9">
-        <v>0.03105177680432492</v>
+        <v>0.01110624352412757</v>
       </c>
       <c r="T9">
-        <v>0.03105177680432492</v>
+        <v>0.01110624352412758</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>29.567358</v>
+        <v>99.54897833333332</v>
       </c>
       <c r="H10">
-        <v>88.702074</v>
+        <v>298.646935</v>
       </c>
       <c r="I10">
-        <v>0.3392801349956059</v>
+        <v>0.4685090478457771</v>
       </c>
       <c r="J10">
-        <v>0.339280134995606</v>
+        <v>0.4685090478457771</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.3606776666666667</v>
+        <v>0.6068583333333333</v>
       </c>
       <c r="N10">
-        <v>1.082033</v>
+        <v>1.820575</v>
       </c>
       <c r="O10">
-        <v>0.2529709148430482</v>
+        <v>0.2510732750714712</v>
       </c>
       <c r="P10">
-        <v>0.2529709148430482</v>
+        <v>0.2510732750714712</v>
       </c>
       <c r="Q10">
-        <v>10.664285692938</v>
+        <v>60.41212707640277</v>
       </c>
       <c r="R10">
-        <v>95.97857123644199</v>
+        <v>543.7091436876249</v>
       </c>
       <c r="S10">
-        <v>0.08582800613791133</v>
+        <v>0.1176301010432558</v>
       </c>
       <c r="T10">
-        <v>0.08582800613791135</v>
+        <v>0.1176301010432558</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>29.567358</v>
+        <v>99.54897833333332</v>
       </c>
       <c r="H11">
-        <v>88.702074</v>
+        <v>298.646935</v>
       </c>
       <c r="I11">
-        <v>0.3392801349956059</v>
+        <v>0.4685090478457771</v>
       </c>
       <c r="J11">
-        <v>0.339280134995606</v>
+        <v>0.4685090478457771</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1122,22 +1122,22 @@
         <v>0.595355</v>
       </c>
       <c r="O11">
-        <v>0.1391893768548491</v>
+        <v>0.08210468103768082</v>
       </c>
       <c r="P11">
-        <v>0.1391893768548491</v>
+        <v>0.08210468103768082</v>
       </c>
       <c r="Q11">
-        <v>5.86769147403</v>
+        <v>19.75566066521389</v>
       </c>
       <c r="R11">
-        <v>52.80922326627</v>
+        <v>177.800945986925</v>
       </c>
       <c r="S11">
-        <v>0.04722419056926749</v>
+        <v>0.03846678593664506</v>
       </c>
       <c r="T11">
-        <v>0.04722419056926749</v>
+        <v>0.03846678593664506</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>29.567358</v>
+        <v>99.54897833333332</v>
       </c>
       <c r="H12">
-        <v>88.702074</v>
+        <v>298.646935</v>
       </c>
       <c r="I12">
-        <v>0.3392801349956059</v>
+        <v>0.4685090478457771</v>
       </c>
       <c r="J12">
-        <v>0.339280134995606</v>
+        <v>0.4685090478457771</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1178,28 +1178,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.232399</v>
+        <v>0.6741056666666667</v>
       </c>
       <c r="N12">
-        <v>0.6971970000000001</v>
+        <v>2.022317</v>
       </c>
       <c r="O12">
-        <v>0.1629992457862456</v>
+        <v>0.278895267936071</v>
       </c>
       <c r="P12">
-        <v>0.1629992457862456</v>
+        <v>0.278895267936071</v>
       </c>
       <c r="Q12">
-        <v>6.871424431842001</v>
+        <v>67.10653040537721</v>
       </c>
       <c r="R12">
-        <v>61.84281988657801</v>
+        <v>603.958773648395</v>
       </c>
       <c r="S12">
-        <v>0.05530240611453938</v>
+        <v>0.1306649564294215</v>
       </c>
       <c r="T12">
-        <v>0.05530240611453938</v>
+        <v>0.1306649564294215</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>29.567358</v>
+        <v>99.54897833333332</v>
       </c>
       <c r="H13">
-        <v>88.702074</v>
+        <v>298.646935</v>
       </c>
       <c r="I13">
-        <v>0.3392801349956059</v>
+        <v>0.4685090478457771</v>
       </c>
       <c r="J13">
-        <v>0.339280134995606</v>
+        <v>0.4685090478457771</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.634239</v>
+        <v>0.9376410000000001</v>
       </c>
       <c r="N13">
-        <v>1.902717</v>
+        <v>2.812923</v>
       </c>
       <c r="O13">
-        <v>0.444840462515857</v>
+        <v>0.3879267759547769</v>
       </c>
       <c r="P13">
-        <v>0.4448404625158569</v>
+        <v>0.387926775954777</v>
       </c>
       <c r="Q13">
-        <v>18.752771570562</v>
+        <v>93.341203593445</v>
       </c>
       <c r="R13">
-        <v>168.774944135058</v>
+        <v>840.070832341005</v>
       </c>
       <c r="S13">
-        <v>0.1509255321738877</v>
+        <v>0.1817472044364546</v>
       </c>
       <c r="T13">
-        <v>0.1509255321738877</v>
+        <v>0.1817472044364546</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.363459</v>
+        <v>0.1674636666666667</v>
       </c>
       <c r="H14">
-        <v>1.090377</v>
+        <v>0.502391</v>
       </c>
       <c r="I14">
-        <v>0.004170626898262873</v>
+        <v>0.0007881370992683645</v>
       </c>
       <c r="J14">
-        <v>0.004170626898262873</v>
+        <v>0.0007881370992683645</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1302,28 +1302,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.3606776666666667</v>
+        <v>0.6068583333333333</v>
       </c>
       <c r="N14">
-        <v>1.082033</v>
+        <v>1.820575</v>
       </c>
       <c r="O14">
-        <v>0.2529709148430482</v>
+        <v>0.2510732750714712</v>
       </c>
       <c r="P14">
-        <v>0.2529709148430482</v>
+        <v>0.2510732750714712</v>
       </c>
       <c r="Q14">
-        <v>0.131091544049</v>
+        <v>0.1016267216472222</v>
       </c>
       <c r="R14">
-        <v>1.179823896441</v>
+        <v>0.914640494825</v>
       </c>
       <c r="S14">
-        <v>0.001055047301922584</v>
+        <v>0.0001978801627186375</v>
       </c>
       <c r="T14">
-        <v>0.001055047301922584</v>
+        <v>0.0001978801627186375</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.363459</v>
+        <v>0.1674636666666667</v>
       </c>
       <c r="H15">
-        <v>1.090377</v>
+        <v>0.502391</v>
       </c>
       <c r="I15">
-        <v>0.004170626898262873</v>
+        <v>0.0007881370992683645</v>
       </c>
       <c r="J15">
-        <v>0.004170626898262873</v>
+        <v>0.0007881370992683645</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1370,22 +1370,22 @@
         <v>0.595355</v>
       </c>
       <c r="O15">
-        <v>0.1391893768548491</v>
+        <v>0.08210468103768082</v>
       </c>
       <c r="P15">
-        <v>0.1391893768548491</v>
+        <v>0.08210468103768082</v>
       </c>
       <c r="Q15">
-        <v>0.072129044315</v>
+        <v>0.03323344375611111</v>
       </c>
       <c r="R15">
-        <v>0.6491613988349999</v>
+        <v>0.299100993805</v>
       </c>
       <c r="S15">
-        <v>0.0005805069590632816</v>
+        <v>6.470974514939205E-05</v>
       </c>
       <c r="T15">
-        <v>0.0005805069590632816</v>
+        <v>6.470974514939205E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,25 +1399,25 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.363459</v>
+        <v>0.1674636666666667</v>
       </c>
       <c r="H16">
-        <v>1.090377</v>
+        <v>0.502391</v>
       </c>
       <c r="I16">
-        <v>0.004170626898262873</v>
+        <v>0.0007881370992683645</v>
       </c>
       <c r="J16">
-        <v>0.004170626898262873</v>
+        <v>0.0007881370992683645</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1426,28 +1426,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.232399</v>
+        <v>0.6741056666666667</v>
       </c>
       <c r="N16">
-        <v>0.6971970000000001</v>
+        <v>2.022317</v>
       </c>
       <c r="O16">
-        <v>0.1629992457862456</v>
+        <v>0.278895267936071</v>
       </c>
       <c r="P16">
-        <v>0.1629992457862456</v>
+        <v>0.278895267936071</v>
       </c>
       <c r="Q16">
-        <v>0.084467508141</v>
+        <v>0.1128882066607778</v>
       </c>
       <c r="R16">
-        <v>0.760207573269</v>
+        <v>1.015993859947</v>
       </c>
       <c r="S16">
-        <v>0.0006798090388726773</v>
+        <v>0.0002198077074708083</v>
       </c>
       <c r="T16">
-        <v>0.0006798090388726772</v>
+        <v>0.0002198077074708083</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,22 +1464,22 @@
         <v>24</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.363459</v>
+        <v>0.1674636666666667</v>
       </c>
       <c r="H17">
-        <v>1.090377</v>
+        <v>0.502391</v>
       </c>
       <c r="I17">
-        <v>0.004170626898262873</v>
+        <v>0.0007881370992683645</v>
       </c>
       <c r="J17">
-        <v>0.004170626898262873</v>
+        <v>0.0007881370992683645</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.634239</v>
+        <v>0.9376410000000001</v>
       </c>
       <c r="N17">
-        <v>1.902717</v>
+        <v>2.812923</v>
       </c>
       <c r="O17">
-        <v>0.444840462515857</v>
+        <v>0.3879267759547769</v>
       </c>
       <c r="P17">
-        <v>0.4448404625158569</v>
+        <v>0.387926775954777</v>
       </c>
       <c r="Q17">
-        <v>0.230519872701</v>
+        <v>0.157020799877</v>
       </c>
       <c r="R17">
-        <v>2.074678854309</v>
+        <v>1.413187198893</v>
       </c>
       <c r="S17">
-        <v>0.00185526359840433</v>
+        <v>0.0003057394839295266</v>
       </c>
       <c r="T17">
-        <v>0.00185526359840433</v>
+        <v>0.0003057394839295267</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>47.03120999999999</v>
+        <v>102.475225</v>
       </c>
       <c r="H18">
-        <v>141.09363</v>
+        <v>307.425675</v>
       </c>
       <c r="I18">
-        <v>0.5396747074191307</v>
+        <v>0.4822808922435293</v>
       </c>
       <c r="J18">
-        <v>0.5396747074191307</v>
+        <v>0.4822808922435293</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1550,28 +1550,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>0.3606776666666667</v>
+        <v>0.6068583333333333</v>
       </c>
       <c r="N18">
-        <v>1.082033</v>
+        <v>1.820575</v>
       </c>
       <c r="O18">
-        <v>0.2529709148430482</v>
+        <v>0.2510732750714712</v>
       </c>
       <c r="P18">
-        <v>0.2529709148430482</v>
+        <v>0.2510732750714712</v>
       </c>
       <c r="Q18">
-        <v>16.96310708331</v>
+        <v>62.18794425145832</v>
       </c>
       <c r="R18">
-        <v>152.66796374979</v>
+        <v>559.6914982631249</v>
       </c>
       <c r="S18">
-        <v>0.1365220044534719</v>
+        <v>0.1210878431199742</v>
       </c>
       <c r="T18">
-        <v>0.1365220044534719</v>
+        <v>0.1210878431199742</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>47.03120999999999</v>
+        <v>102.475225</v>
       </c>
       <c r="H19">
-        <v>141.09363</v>
+        <v>307.425675</v>
       </c>
       <c r="I19">
-        <v>0.5396747074191307</v>
+        <v>0.4822808922435293</v>
       </c>
       <c r="J19">
-        <v>0.5396747074191307</v>
+        <v>0.4822808922435293</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1618,22 +1618,22 @@
         <v>0.595355</v>
       </c>
       <c r="O19">
-        <v>0.1391893768548491</v>
+        <v>0.08210468103768082</v>
       </c>
       <c r="P19">
-        <v>0.1391893768548491</v>
+        <v>0.08210468103768082</v>
       </c>
       <c r="Q19">
-        <v>9.333422009849999</v>
+        <v>20.33637919329166</v>
       </c>
       <c r="R19">
-        <v>84.00079808864999</v>
+        <v>183.027412739625</v>
       </c>
       <c r="S19">
-        <v>0.07511698622999183</v>
+        <v>0.03959751882822309</v>
       </c>
       <c r="T19">
-        <v>0.07511698622999183</v>
+        <v>0.03959751882822309</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1647,7 +1647,7 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>47.03120999999999</v>
+        <v>102.475225</v>
       </c>
       <c r="H20">
-        <v>141.09363</v>
+        <v>307.425675</v>
       </c>
       <c r="I20">
-        <v>0.5396747074191307</v>
+        <v>0.4822808922435293</v>
       </c>
       <c r="J20">
-        <v>0.5396747074191307</v>
+        <v>0.4822808922435293</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -1674,28 +1674,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>0.232399</v>
+        <v>0.6741056666666667</v>
       </c>
       <c r="N20">
-        <v>0.6971970000000001</v>
+        <v>2.022317</v>
       </c>
       <c r="O20">
-        <v>0.1629992457862456</v>
+        <v>0.278895267936071</v>
       </c>
       <c r="P20">
-        <v>0.1629992457862456</v>
+        <v>0.278895267936071</v>
       </c>
       <c r="Q20">
-        <v>10.93000617279</v>
+        <v>69.07912986544166</v>
       </c>
       <c r="R20">
-        <v>98.37005555511</v>
+        <v>621.712168788975</v>
       </c>
       <c r="S20">
-        <v>0.08796657027923109</v>
+        <v>0.1345058586627065</v>
       </c>
       <c r="T20">
-        <v>0.08796657027923108</v>
+        <v>0.1345058586627065</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>47.03120999999999</v>
+        <v>102.475225</v>
       </c>
       <c r="H21">
-        <v>141.09363</v>
+        <v>307.425675</v>
       </c>
       <c r="I21">
-        <v>0.5396747074191307</v>
+        <v>0.4822808922435293</v>
       </c>
       <c r="J21">
-        <v>0.5396747074191307</v>
+        <v>0.4822808922435293</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.634239</v>
+        <v>0.9376410000000001</v>
       </c>
       <c r="N21">
-        <v>1.902717</v>
+        <v>2.812923</v>
       </c>
       <c r="O21">
-        <v>0.444840462515857</v>
+        <v>0.3879267759547769</v>
       </c>
       <c r="P21">
-        <v>0.4448404625158569</v>
+        <v>0.387926775954777</v>
       </c>
       <c r="Q21">
-        <v>29.82902759919</v>
+        <v>96.08497244422499</v>
       </c>
       <c r="R21">
-        <v>268.46124839271</v>
+        <v>864.7647519980248</v>
       </c>
       <c r="S21">
-        <v>0.2400691464564359</v>
+        <v>0.1870896716326255</v>
       </c>
       <c r="T21">
-        <v>0.2400691464564358</v>
+        <v>0.1870896716326255</v>
       </c>
     </row>
   </sheetData>
